--- a/TI/BACKLOG CLUB PENGUIN.xlsx
+++ b/TI/BACKLOG CLUB PENGUIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabela\Projeto-Individual\TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabela\Desktop\Projeto-Individual\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D666C013-4508-4C6E-8506-3B4F071D792A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F95CB5C-65E4-4953-BFD2-74175623A5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5348C50-36D5-4FA6-A837-23633C402768}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5348C50-36D5-4FA6-A837-23633C402768}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Backlog</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Importante</t>
+  </si>
+  <si>
+    <t>Padronizar CSS</t>
+  </si>
+  <si>
+    <t>Padronização do CSS do site para facilitar a leitura do codigo</t>
+  </si>
+  <si>
+    <t>Desejavel</t>
   </si>
 </sst>
 </file>
@@ -602,22 +611,22 @@
   <dimension ref="D2:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
@@ -627,7 +636,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -656,7 +665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="4:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
@@ -681,7 +690,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="4:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
@@ -706,7 +715,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -729,7 +738,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -752,7 +761,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
@@ -772,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
@@ -792,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
@@ -812,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -832,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
@@ -852,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
@@ -872,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
@@ -892,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
@@ -912,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="4:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
@@ -932,7 +941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
@@ -952,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
@@ -972,7 +981,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -980,7 +1009,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -988,7 +1017,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1005,15 +1034,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003E766D4FE020D42BD39BDB2136774A4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="06934da6e5b10321cb88d0fc1a3ce0fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dc254948-99fa-45f6-a566-6a61bfbd02ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bcb8c8660b69ba97b99a21cf744ffae9" ns3:_="">
     <xsd:import namespace="dc254948-99fa-45f6-a566-6a61bfbd02ca"/>
@@ -1189,6 +1209,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1198,14 +1227,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2699B0C-C07C-4B7F-BF52-7219CED35FDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB5C2BC-BBD7-42DA-99CB-B2D0D5A450FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1219,6 +1240,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2699B0C-C07C-4B7F-BF52-7219CED35FDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TI/BACKLOG CLUB PENGUIN.xlsx
+++ b/TI/BACKLOG CLUB PENGUIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabela\Desktop\Projeto-Individual\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F95CB5C-65E4-4953-BFD2-74175623A5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEE6005-FD08-4F20-9C1B-0AB33CC6BBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5348C50-36D5-4FA6-A837-23633C402768}"/>
+    <workbookView xWindow="2760" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{D5348C50-36D5-4FA6-A837-23633C402768}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Backlog</t>
   </si>
@@ -172,15 +172,6 @@
   </si>
   <si>
     <t>;</t>
-  </si>
-  <si>
-    <t>Prototipo do Site</t>
-  </si>
-  <si>
-    <t>Prototipo de todas as paginas do site na ferramenta figma</t>
-  </si>
-  <si>
-    <t>Importante</t>
   </si>
   <si>
     <t>Padronizar CSS</t>
@@ -608,25 +599,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F795EA-1BDC-4237-A8B0-3AA9F3C9EE38}">
-  <dimension ref="D2:R27"/>
+  <dimension ref="D2:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
@@ -636,7 +627,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -665,7 +656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="4:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:18" ht="90" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
@@ -690,7 +681,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="4:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:18" ht="60" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
@@ -709,13 +700,11 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -738,7 +727,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -761,7 +750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
@@ -781,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
@@ -801,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
@@ -821,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -841,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
@@ -861,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
@@ -881,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
@@ -901,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
@@ -921,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:18" ht="45" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
@@ -941,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
@@ -961,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
@@ -972,36 +961,24 @@
         <v>46</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H18" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="3">
-        <v>5</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1009,21 +986,13 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1034,6 +1003,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003E766D4FE020D42BD39BDB2136774A4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="06934da6e5b10321cb88d0fc1a3ce0fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dc254948-99fa-45f6-a566-6a61bfbd02ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bcb8c8660b69ba97b99a21cf744ffae9" ns3:_="">
     <xsd:import namespace="dc254948-99fa-45f6-a566-6a61bfbd02ca"/>
@@ -1209,15 +1187,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1227,6 +1196,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2699B0C-C07C-4B7F-BF52-7219CED35FDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB5C2BC-BBD7-42DA-99CB-B2D0D5A450FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1240,14 +1217,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2699B0C-C07C-4B7F-BF52-7219CED35FDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TI/BACKLOG CLUB PENGUIN.xlsx
+++ b/TI/BACKLOG CLUB PENGUIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabela\Desktop\Projeto-Individual\TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEE6005-FD08-4F20-9C1B-0AB33CC6BBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787EE830-F55B-4A7F-A657-0625AB45E777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{D5348C50-36D5-4FA6-A837-23633C402768}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5348C50-36D5-4FA6-A837-23633C402768}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Backlog</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Desejavel</t>
+  </si>
+  <si>
+    <t>Criação pagina quizes</t>
+  </si>
+  <si>
+    <t>Criação e estilização da pagina cadastro/login do website feita com HTML e CSS e Java Script</t>
   </si>
 </sst>
 </file>
@@ -280,6 +286,974 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> de burndown</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planejados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$L$4:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B7E-4FA6-8474-1864E6D8A6E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Entregues</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$M$4:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B7E-4FA6-8474-1864E6D8A6E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1718000432"/>
+        <c:axId val="1718001392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1718000432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718001392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1718001392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1718000432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>224790</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41D09F7-0B4B-F6A5-DA73-205062F40C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -601,23 +1575,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F795EA-1BDC-4237-A8B0-3AA9F3C9EE38}">
   <dimension ref="D2:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="79" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
@@ -627,7 +1601,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -656,7 +1630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="4:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
@@ -678,10 +1652,14 @@
       <c r="L4" s="7">
         <v>96</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5"/>
+      <c r="M4" s="7">
+        <v>67</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="4:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
@@ -704,7 +1682,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -727,7 +1705,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -750,7 +1728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
@@ -770,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
@@ -790,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
@@ -810,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
@@ -830,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
@@ -850,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
@@ -870,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
@@ -890,7 +1868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
@@ -910,7 +1888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="4:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
@@ -930,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
@@ -950,7 +1928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
@@ -970,7 +1948,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -978,7 +1976,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -986,7 +1984,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -999,19 +1997,11 @@
     <mergeCell ref="D2:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003E766D4FE020D42BD39BDB2136774A4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="06934da6e5b10321cb88d0fc1a3ce0fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dc254948-99fa-45f6-a566-6a61bfbd02ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bcb8c8660b69ba97b99a21cf744ffae9" ns3:_="">
     <xsd:import namespace="dc254948-99fa-45f6-a566-6a61bfbd02ca"/>
@@ -1187,6 +2177,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1196,14 +2195,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2699B0C-C07C-4B7F-BF52-7219CED35FDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FB5C2BC-BBD7-42DA-99CB-B2D0D5A450FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1217,6 +2208,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2699B0C-C07C-4B7F-BF52-7219CED35FDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
